--- a/output/google_maps_data_Toko_Oleh_oleh_Bantul.xlsx
+++ b/output/google_maps_data_Toko_Oleh_oleh_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.897066</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.897066</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.323286</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Geplak+Mbok+Tumpuk/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff6500000001:0xf1057df9d7154d21!8m2!3d-7.8970663!4d110.3232858!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEEZGVsaeABAA!16s%2Fg%2F1pzs0p3w4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 367364</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>-7.883165</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.883165</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.332046</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Kurnia+Bantul/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55ff6d916af5:0x181c9758ce86da5e!8m2!3d-7.8831655!4d110.3320459!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgETc2Nob29sX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F11b6mhtdn1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Kurnia+Bantul/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55ff6d916af5:0x181c9758ce86da5e!8m2!3d-7.8831655!4d110.3320459!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgETc2Nob29sX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F11b6mhtdn1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -571,25 +564,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>-7.938418</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.938418</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.337473</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+oleh+oleh+Bu+vera+-+Paris/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5566da2d563b:0x9775a498eb77163a!8m2!3d-7.9384177!4d110.3374733!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRhbVpoV0doUlJSQULgAQD6AQQIABA8!16s%2Fg%2F11g8yk100g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+oleh+oleh+Bu+vera+-+Paris/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5566da2d563b:0x9775a498eb77163a!8m2!3d-7.9384177!4d110.3374733!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRhbVpoV0doUlJSQULgAQD6AQQIABA8!16s%2Fg%2F11g8yk100g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -608,25 +600,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>-7.926734</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.926734</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.281638</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Oleh+Oleh+Bantul+Yogyakarta/@-7.9267345,110.20954,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7afe54e0eab69f:0xa6c1185d3823fda2!8m2!3d-7.9267345!4d110.2816378!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ1ZWpjeWJuUjNSUkFC4AEA-gEECAAQLQ!16s%2Fg%2F11gcqwvl4j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -645,25 +636,24 @@
           <t>0877-3824-2244</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.898807</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.898807</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.372953</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Spesialis+Brownies+Panggang+dan+Roti+Hantaran+RAHAPI/@-7.8988073,110.3008551,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55672403e37f:0x2258003aee93ecfc!8m2!3d-7.8988073!4d110.3729529!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJY2FrZV9zaG9w4AEA!16s%2Fg%2F11jp74hjhw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,25 +672,24 @@
           <t>0856-4376-9657</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>-7.793935</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.793935</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.367778</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Khas+Jogja+BU+TINI/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a582840a0f525:0x9109beec43928361!8m2!3d-7.7939353!4d110.3677779!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1hm5669kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Khas+Jogja+BU+TINI/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a582840a0f525:0x9109beec43928361!8m2!3d-7.7939353!4d110.3677779!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1hm5669kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -719,25 +708,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>-7.82605</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.82605</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.354337</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NICESO+BANTUL/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5744b81b8e01:0xafec742da50f2963!8m2!3d-7.8260503!4d110.3543373!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERY29udmVuaWVuY2Vfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNOSFkyY2s1UkVBReABAPoBBAgAEEM!16s%2Fg%2F11tj2yml97?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/NICESO+BANTUL/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5744b81b8e01:0xafec742da50f2963!8m2!3d-7.8260503!4d110.3543373!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERY29udmVuaWVuY2Vfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNOSFkyY2s1UkVBReABAPoBBAgAEEM!16s%2Fg%2F11tj2yml97?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -760,25 +748,24 @@
           <t>0823-3845-1712</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>-7.814294</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.814294</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.3561</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Ob/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5794dfb4efa9:0x3a0b31d7a23c6c1!8m2!3d-7.8142945!4d110.3561001!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWySAQpmb29kX3N0b3Jl4AEA!16s%2Fg%2F11bbx28q0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -797,25 +784,24 @@
           <t>(0274) 6536960</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>-7.885327</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885327</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.329565</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+dan+Camilan+Bu+Nurul/@-7.8853267,110.2574671,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff55e4940f4f:0xac4ad12d6e82a8de!8m2!3d-7.8853267!4d110.3295649!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEKZm9vZF9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVWVWOW1XSEYzUlJBQuABAPoBBAgAEDc!16s%2Fg%2F11b6nnb7k9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -830,25 +816,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.908816</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.908816</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.351938</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh2+Lancar/@-7.8853267,110.2574671,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55979f76df43:0x9b8031d4bb35e534!8m2!3d-7.9088161!4d110.3519382!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELc3VwZXJtYXJrZXTgAQA!16s%2Fg%2F11fz9h_rnr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,25 +856,24 @@
           <t>0821-4038-4686</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.79651</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.79651</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.343207</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Art+elektronik/@-7.7965097,110.2711091,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a59ac6602d0ef:0xe62fae3bde670fa7!8m2!3d-7.7965097!4d110.3432069!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERZWxlY3Ryb25pY3Nfc3RvcmXgAQA!16s%2Fg%2F11k20dz4xx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -904,25 +888,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>-7.805191</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.805191</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.360353</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.7965097,110.2711091,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.7965097,110.2711091,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -945,25 +928,24 @@
           <t>(0274) 580586</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.800828</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.800828</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.348561</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Intisari+Martadinata/@-7.7965097,110.2711091,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f6a1ce887d:0x2104e7472c3cd782!8m2!3d-7.8008278!4d110.3485612!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgETYmFraW5nX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F11b6dylgbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Intisari+Martadinata/@-7.7965097,110.2711091,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f6a1ce887d:0x2104e7472c3cd782!8m2!3d-7.8008278!4d110.3485612!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgETYmFraW5nX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F11b6dylgbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -986,25 +968,24 @@
           <t>0882-0053-65176</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.89192</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.89192</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.352356</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JIMSHONEY+BANTUL+STORE+OFFICIAL+(Jimshoney+jogja+store+official)/@-7.8919196,110.2802579,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f531c71601:0x1e7beeb6abfa65b!8m2!3d-7.8919196!4d110.3523557!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIYmFnX3Nob3DgAQA!16s%2Fg%2F11sf0dhz1h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JIMSHONEY+BANTUL+STORE+OFFICIAL+(Jimshoney+jogja+store+official)/@-7.8919196,110.2802579,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f531c71601:0x1e7beeb6abfa65b!8m2!3d-7.8919196!4d110.3523557!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIYmFnX3Nob3DgAQA!16s%2Fg%2F11sf0dhz1h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1031,25 +1012,24 @@
           <t>0877-4233-9130</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.804458</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.804458</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.342983</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Danar+Koper+Bantul/@-7.8044577,110.2708854,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57db6b28ebb1:0x10f582c4ec5d43a3!8m2!3d-7.8044577!4d110.3429832!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgENbHVnZ2FnZV9zdG9yZeABAA!16s%2Fg%2F11gh9pq4cz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Danar+Koper+Bantul/@-7.8044577,110.2708854,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57db6b28ebb1:0x10f582c4ec5d43a3!8m2!3d-7.8044577!4d110.3429832!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgENbHVnZ2FnZV9zdG9yZeABAA!16s%2Fg%2F11gh9pq4cz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1072,25 +1052,24 @@
           <t>0851-0245-0808</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>-7.893598</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.893598</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.341237</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+%26+Camilan+%22Lancar%22/@-7.8935985,110.2691391,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f1bf68e45f:0xb05084f8c15babd5!8m2!3d-7.8935985!4d110.3412369!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERaGVhbHRoX2Zvb2Rfc3RvcmXgAQA!16s%2Fg%2F11b6jg_z62?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+%26+Camilan+%22Lancar%22/@-7.8935985,110.2691391,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f1bf68e45f:0xb05084f8c15babd5!8m2!3d-7.8935985!4d110.3412369!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERaGVhbHRoX2Zvb2Rfc3RvcmXgAQA!16s%2Fg%2F11b6jg_z62?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1117,25 +1096,24 @@
           <t>0831-3875-1329</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.814432</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.814432</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.355829</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JOSS+GANDOS+PUSAT+YOGYAKARTA/@-7.8144322,110.2837309,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5794d8b0dda3:0x840ad238dbe47a63!8m2!3d-7.8144322!4d110.3558287!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOY29tcHV0ZXJfc3RvcmXgAQA!16s%2Fg%2F11bztjbbdc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1155,22 +1133,21 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.830055</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.830055</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.367463</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Diantama+-+Ruko+Perwita+Regency%EA%A7%8B%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A9%EA%A6%AB%EA%A6%B8%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A5%EA%A6%BC%EA%A6%82%EA%A6%AE%EA%A6%B6%EA%A6%A0%EA%A6%89%EA%A6%92%EA%A6%BC%EA%A6%9A%EA%A7%80%EA%A6%95%EA%A7%80%EA%A6%AA%EA%A7%80/@-7.8144322,110.2837309,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57ae3032b3af:0x595bf253c7c2e7a7!8m2!3d-7.8300549!4d110.3674631!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1hm3kd7kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1189,25 +1166,24 @@
           <t>0818-0421-3977</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>-7.916758</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.916758</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.38174</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Imogiri+Bantul/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5455081ed15b:0xb77942b9cbe913dc!8m2!3d-7.9167581!4d110.3817403!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOcHJvZHVjZV9tYXJrZXTgAQA!16s%2Fg%2F11cjpb0yt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1226,25 +1202,24 @@
           <t>0878-3832-0769</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-7.886084</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.886084</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.330328</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+oleh-oleh+Laris+Baru+Pak+Wintolo/@-7.8860841,110.2582306,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7affb44b0c963d:0xf10202201c20b53!8m2!3d-7.8860841!4d110.3303284!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYkVwTWNGTjNFQUXgAQD6AQQIABAc!16s%2Fg%2F11p6pbpv50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+oleh-oleh+Laris+Baru+Pak+Wintolo/@-7.8860841,110.2582306,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7affb44b0c963d:0xf10202201c20b53!8m2!3d-7.8860841!4d110.3303284!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYkVwTWNGTjNFQUXgAQD6AQQIABAc!16s%2Fg%2F11p6pbpv50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1267,25 +1242,24 @@
           <t>(0274) 388496</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.824719</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.824719</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.373024</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dapur+Roti+Bu+Haryati(%EA%A7%8B%EA%A6%A3%EA%A6%A5%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%B6%EA%A6%A7%EA%A6%B8%EA%A6%B2%EA%A6%82%EA%A6%AA%EA%A6%A0%EA%A6%B6)/@-7.8247189,110.3009261,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a5d7e6e633:0xd4f24ab31d55279!8m2!3d-7.8247189!4d110.3730239!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEGYmFrZXJ54AEA!16s%2Fg%2F11bzywjh0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1304,25 +1278,24 @@
           <t>0852-9345-4133</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.935834</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.935834</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.369583</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BAKPIA+PATHOK+DINDUN/@-7.9358345,110.2974853,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55199d9b6a93:0xbf90795f60dc2095!8m2!3d-7.9358345!4d110.3695831!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJY2FrZV9zaG9w4AEA!16s%2Fg%2F11gb409m98?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1341,25 +1314,24 @@
           <t>0852-9345-4133</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.891692</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.891692</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.327859</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mulia+Swalayan+%26+Toserba+Bantul/@-7.8916917,110.2557613,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff59cafcd819:0xb0495038615e495e!8m2!3d-7.8916917!4d110.3278591!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQZGVwYXJ0bWVudF9zdG9yZeABAA!16s%2Fg%2F11b7lpdxk0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1382,25 +1354,24 @@
           <t>0817-9438-740</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>-7.79497</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.79497</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.365348</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1423,25 +1394,24 @@
           <t>0822-9873-9584</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.814968</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.814968</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.356179</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masrifah+Bakery+%26+Cake/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a579522fef471:0x1292eaee86ecad10!8m2!3d-7.8149682!4d110.3561785!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEGYmFrZXJ54AEA!16s%2Fg%2F11bbx0c_f5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masrifah+Bakery+%26+Cake/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a579522fef471:0x1292eaee86ecad10!8m2!3d-7.8149682!4d110.3561785!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEGYmFrZXJ54AEA!16s%2Fg%2F11bbx0c_f5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1464,25 +1434,24 @@
           <t>0813-2746-1162</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.828013</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.828013</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.367328</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Optik+B+Riski+Bantul/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57ee5bf1cab3:0x9cec53a03f639e2b!8m2!3d-7.8280128!4d110.3673283!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIb3B0aWNpYW7gAQA!16s%2Fg%2F11t5n5rx6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Optik+B+Riski+Bantul/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57ee5bf1cab3:0x9cec53a03f639e2b!8m2!3d-7.8280128!4d110.3673283!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIb3B0aWNpYW7gAQA!16s%2Fg%2F11t5n5rx6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -1505,25 +1474,24 @@
           <t>0858-6630-0241</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>-7.781288</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.781288</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.350374</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Erafone+Godean+Bantul/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a59b3af5e6853:0xa8b89f2f65bf1f58!8m2!3d-7.7812877!4d110.3503741!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERZWxlY3Ryb25pY3Nfc3RvcmXgAQA!16s%2Fg%2F11trhzr_hc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Erafone+Godean+Bantul/@-7.7949698,110.2932502,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a59b3af5e6853:0xa8b89f2f65bf1f58!8m2!3d-7.7812877!4d110.3503741!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERZWxlY3Ryb25pY3Nfc3RvcmXgAQA!16s%2Fg%2F11trhzr_hc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1546,25 +1514,24 @@
           <t>0818-0272-0003</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.915509</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.915509</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.351644</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Geplak+Peyek+Tumpuk+Bantul/@-7.9155091,110.2795461,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55495935cd4b:0x2340deb5d30999a6!8m2!3d-7.9155091!4d110.3516439!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWRDMVFPRlZuRUFF4AEA-gEFCKABED8!16s%2Fg%2F1pzrfpsy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Geplak+Peyek+Tumpuk+Bantul/@-7.9155091,110.2795461,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55495935cd4b:0x2340deb5d30999a6!8m2!3d-7.9155091!4d110.3516439!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWRDMVFPRlZuRUFF4AEA-gEFCKABED8!16s%2Fg%2F1pzrfpsy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1587,25 +1554,24 @@
           <t>0818-0272-0003</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.816542</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.816542</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.32832</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SOCKISGOOD+BANTUL+(toko+kaos+kaki)/@-7.8165418,110.2562225,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7af96aa6a92867:0x97bf11eadb2bf183!8m2!3d-7.8165418!4d110.3283203!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11llnv33zy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1624,25 +1590,24 @@
           <t>0888-6534-403</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.9</v>
+        <v>-7.909234</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.909234</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.382924</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Buket+Bantul+Jogja+(Bykay+Bouquet)/@-7.9092336,110.3108259,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55d0e5bf5af5:0x951f03079bbf2563!8m2!3d-7.9092336!4d110.3829237!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEHZmxvcmlzdOABAA!16s%2Fg%2F11tf56l8lc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Buket+Bantul+Jogja+(Bykay+Bouquet)/@-7.9092336,110.3108259,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55d0e5bf5af5:0x951f03079bbf2563!8m2!3d-7.9092336!4d110.3829237!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEHZmxvcmlzdOABAA!16s%2Fg%2F11tf56l8lc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1665,25 +1630,24 @@
           <t>0888-0295-5748</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.815059</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.815059</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.355742</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Central+Bearings/@-7.8150588,110.2836445,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5795249049f9:0xb3513d8b9931274e!8m2!3d-7.8150588!4d110.3557423!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1pzwfj53j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1706,25 +1670,24 @@
           <t>0811-1111-298</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.919997</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.919997</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.379082</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Imogiri+517/@-7.9199974,110.3069843,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a54ffe6764971:0x18663d87bbaed109!8m2!3d-7.9199974!4d110.3790821!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11cjhs8y1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Imogiri+517/@-7.9199974,110.3069843,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a54ffe6764971:0x18663d87bbaed109!8m2!3d-7.9199974!4d110.3790821!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11cjhs8y1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1747,25 +1710,24 @@
           <t>0821-3454-2242</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.9</v>
+        <v>-7.913549</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.913549</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.370632</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Bangunan+Jaya+Abadi+Bantul/@-7.9199974,110.3069843,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5517516e9c2d:0x1a3311465dc86739!8m2!3d-7.9135486!4d110.3706324!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEYYnVpbGRpbmdfbWF0ZXJpYWxzX3N0b3Jl4AEA!16s%2Fg%2F11btxcwk0b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Bangunan+Jaya+Abadi+Bantul/@-7.9199974,110.3069843,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5517516e9c2d:0x1a3311465dc86739!8m2!3d-7.9135486!4d110.3706324!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEYYnVpbGRpbmdfbWF0ZXJpYWxzX3N0b3Jl4AEA!16s%2Fg%2F11btxcwk0b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1792,25 +1754,24 @@
           <t>0813-9365-4890</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.9</v>
+        <v>-7.826471</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.826471</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.37447</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kado+Wisudaku/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a89deb0827:0x975169057a6c00a6!8m2!3d-7.8264711!4d110.3744699!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11b7hfr2cl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kado+Wisudaku/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a89deb0827:0x975169057a6c00a6!8m2!3d-7.8264711!4d110.3744699!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11b7hfr2cl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1837,25 +1798,24 @@
           <t>0813-9365-4890</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.9</v>
+        <v>-7.81677</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.81677</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.35601</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Momoyo+ice+cream%26fruit+tea+bantul/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5704c791b465:0xddb4a2b32e0df6e8!8m2!3d-7.8167705!4d110.3560095!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOaWNlX2NyZWFtX3Nob3DgAQA!16s%2Fg%2F11l5lthzkt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1874,25 +1834,24 @@
           <t>0895-4185-7686</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>-7.91216</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.91216</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.38252</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Viend's+Cake+%26+Tart+%EA%A6%AE%EA%A6%B3%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A7%80'%EA%A6%B1%EA%A7%80%EA%A6%95%EA%A6%8F%EA%A6%BA%26%EA%A6%A0%EA%A6%82%EA%A6%A0%EA%A7%80/@-7.9121604,110.3104226,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5453bc40b4a5:0xf0534c9126484338!8m2!3d-7.9121604!4d110.3825204!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEGYmFrZXJ54AEA!16s%2Fg%2F11fmdlxn8q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1915,25 +1874,24 @@
           <t>0857-2928-7188</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.941581</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.941581</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.351359</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Monela+Handmade+(+toko+buket+bantul+)/@-7.9121604,110.3104226,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5541d18aa59b:0x92ea3405f763b887!8m2!3d-7.941581!4d110.351359!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11f0xrhnpn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Monela+Handmade+(+toko+buket+bantul+)/@-7.9121604,110.3104226,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5541d18aa59b:0x92ea3405f763b887!8m2!3d-7.941581!4d110.351359!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11f0xrhnpn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1960,25 +1918,24 @@
           <t>0812-2886-5711</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>-7.819914</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.819914</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.354443</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ricie/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57632cd24919:0xd3d2910b74f23ed0!8m2!3d-7.8199142!4d110.3544433!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFZGluZXLgAQA!16s%2Fg%2F11h227tpy_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1997,25 +1954,24 @@
           <t>0856-4383-7538</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.829851</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.829851</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.353797</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oppo+Store+Bantul/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5751464646f9:0xece1a8447f4f4b0b!8m2!3d-7.829851!4d110.3537971!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11rvbk27tk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oppo+Store+Bantul/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5751464646f9:0xece1a8447f4f4b0b!8m2!3d-7.829851!4d110.3537971!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11rvbk27tk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2038,25 +1994,24 @@
           <t>0856-4383-7538</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.918794</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.918794</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.37759</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+WS+Imogiri/@-7.9187943,110.3054923,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55aaa42b4b73:0xae23bae5382ea507!8m2!3d-7.9187943!4d110.3775901!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRaM1UyYldsM1JSQULgAQD6AQQIABAs!16s%2Fg%2F11cs3vfftp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2075,25 +2030,24 @@
           <t>(0274) 2810667</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F42" t="n">
-        <v>3.9</v>
+        <v>-7.797058</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.797058</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.36876</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Sarang+Semut/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a578797a24fc1:0xa8eb0c7a0b4c0b7!8m2!3d-7.797058!4d110.36876!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWySAQp3aG9sZXNhbGVy4AEA!16s%2Fg%2F1pzxbb60f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2112,25 +2066,24 @@
           <t>0811-2651-692</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.8</v>
+        <v>-7.786703</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.786703</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.366482</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Oleh-Oleh+Jogja+Istimewa+Pulpa/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a590120aa7637:0xd86920e9d406f52b!8m2!3d-7.7867027!4d110.3664817!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11khkp72bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2149,25 +2102,24 @@
           <t>0897-2700-234</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>-7.829819</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.829819</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.353804</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Xiaomi+bantul+resmi/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57e91497a9c9:0x6f03029561733d74!8m2!3d-7.8298194!4d110.3538037!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERZWxlY3Ryb25pY3Nfc3RvcmXgAQA!16s%2Fg%2F11q3tf_8yk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Xiaomi+bantul+resmi/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57e91497a9c9:0x6f03029561733d74!8m2!3d-7.8298194!4d110.3538037!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgERZWxlY3Ryb25pY3Nfc3RvcmXgAQA!16s%2Fg%2F11q3tf_8yk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2194,25 +2146,24 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.7</v>
+        <v>-7.796874</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.796874</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.365442</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2231,25 +2182,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.8</v>
+        <v>-7.814663</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.814663</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.355791</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Istana+Kacamata/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57326389e9d5:0xab631a5358f3dbcb!8m2!3d-7.8146627!4d110.3557905!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQc3VuZ2xhc3Nlc19zdG9yZeABAA!16s%2Fg%2F11swv00d2t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2272,25 +2222,24 @@
           <t>0821-3607-9897</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.4</v>
+        <v>-7.819727</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.819727</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.355454</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+Toko+kulit+MgCompany4+%2F+Kulit+Nabati+Jogja)/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57bf8297d28d:0xae4662fccfff69a0!8m2!3d-7.8197269!4d110.3554539!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEWbGVhdGhlcl9nb29kc19zdXBwbGllcuABAA!16s%2Fg%2F11c1tdyy81?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/New+Toko+kulit+MgCompany4+%2F+Kulit+Nabati+Jogja)/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57bf8297d28d:0xae4662fccfff69a0!8m2!3d-7.8197269!4d110.3554539!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEWbGVhdGhlcl9nb29kc19zdXBwbGllcuABAA!16s%2Fg%2F11c1tdyy81?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2317,25 +2266,24 @@
           <t>(0274) 583237</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.6</v>
+        <v>-7.797724</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.797724</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.358647</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bakpia+Pathok+25+Ongko+Joyo/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5775d40149db:0x54613a618d7b0c14!8m2!3d-7.7977241!4d110.358647!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11sfrydv13?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2358,25 +2306,24 @@
           <t>(0274) 583237</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>-7.915893</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.915893</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.398302</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Batik+Giriloyo/@-7.9158931,110.3262043,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a545f03793c85:0x1ba72bc2befc109f!8m2!3d-7.9158931!4d110.3983021!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPY3VsdHVyYWxfY2VudGVy4AEA!16s%2Fg%2F11fxzpzkxr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2395,25 +2342,24 @@
           <t>(0274) 551888</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.793693</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.793693</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.365896</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dagelan+Pusat+Oleh-Oleh+Khas+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a58262dad55df:0xded076c1f9d1ac2e!8m2!3d-7.7936929!4d110.3658961!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11bzsd7_x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2432,25 +2378,24 @@
           <t>(0274) 372132</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.814444</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.814444</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.35609</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Obat+Gunawan/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5794e0dea2fb:0x3596a1d8c0189f98!8m2!3d-7.8144437!4d110.3560902!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUllORnBpYmpWUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11b6d401lf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Obat+Gunawan/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5794e0dea2fb:0x3596a1d8c0189f98!8m2!3d-7.8144437!4d110.3560902!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUllORnBpYmpWUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11b6d401lf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2473,25 +2418,24 @@
           <t>(0274) 7409978</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.798645</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.798645</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.351869</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2514,25 +2458,24 @@
           <t>(0274) 7409978</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.3</v>
+        <v>-7.798645</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.798645</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.351869</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
